--- a/data/state_election_results/wisconsin_president.xlsx
+++ b/data/state_election_results/wisconsin_president.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirhamilton/Desktop/Gov_51/covid_election/data/state_election_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7167A021-E6A5-4147-AB84-B425BEEA2FE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F85034-BEED-E147-BDC8-EBC3892AF176}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9100" yWindow="2100" windowWidth="22840" windowHeight="17540" xr2:uid="{7D663038-D606-E346-8149-AF7E545633B6}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
-    <t>County</t>
-  </si>
-  <si>
     <t>biden.votes</t>
   </si>
   <si>
@@ -265,6 +262,9 @@
   </si>
   <si>
     <t>Wood</t>
+  </si>
+  <si>
+    <t>county</t>
   </si>
 </sst>
 </file>
@@ -272,7 +272,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -315,7 +315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,32 +632,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3F6016-A515-ED42-91A3-80DC1F6909BA}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>4329</v>
@@ -674,7 +672,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>4801</v>
@@ -691,7 +689,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>9194</v>
@@ -708,7 +706,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>6147</v>
@@ -725,7 +723,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>65511</v>
@@ -742,7 +740,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>2860</v>
@@ -759,7 +757,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
         <v>3569</v>
@@ -776,7 +774,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
         <v>12116</v>
@@ -793,7 +791,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
         <v>13983</v>
@@ -810,7 +808,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
         <v>4524</v>
@@ -827,7 +825,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
         <v>16410</v>
@@ -844,7 +842,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2">
         <v>3953</v>
@@ -861,7 +859,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2">
         <v>260185</v>
@@ -878,7 +876,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2">
         <v>16356</v>
@@ -895,7 +893,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
         <v>10044</v>
@@ -912,7 +910,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
         <v>13218</v>
@@ -929,7 +927,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2">
         <v>9897</v>
@@ -946,7 +944,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2">
         <v>31620</v>
@@ -963,7 +961,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>781</v>
@@ -980,7 +978,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2">
         <v>20588</v>
@@ -997,7 +995,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2">
         <v>1721</v>
@@ -1014,7 +1012,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2">
         <v>10998</v>
@@ -1031,7 +1029,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2">
         <v>10851</v>
@@ -1048,7 +1046,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2">
         <v>3344</v>
@@ -1065,7 +1063,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2">
         <v>7828</v>
@@ -1082,7 +1080,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2">
         <v>1533</v>
@@ -1099,7 +1097,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2">
         <v>4256</v>
@@ -1116,7 +1114,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2">
         <v>19904</v>
@@ -1133,7 +1131,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2">
         <v>4746</v>
@@ -1150,7 +1148,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2">
         <v>42193</v>
@@ -1167,7 +1165,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2">
         <v>3976</v>
@@ -1184,7 +1182,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2">
         <v>37846</v>
@@ -1201,7 +1199,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2">
         <v>3647</v>
@@ -1218,7 +1216,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2">
         <v>3704</v>
@@ -1235,7 +1233,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2">
         <v>6261</v>
@@ -1252,7 +1250,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2">
         <v>16818</v>
@@ -1269,7 +1267,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2">
         <v>30808</v>
@@ -1286,7 +1284,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2">
         <v>7366</v>
@@ -1303,7 +1301,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2">
         <v>3239</v>
@@ -1320,7 +1318,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2">
         <v>1303</v>
@@ -1337,7 +1335,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2">
         <v>317270</v>
@@ -1354,7 +1352,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2">
         <v>8433</v>
@@ -1371,7 +1369,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" s="2">
         <v>6715</v>
@@ -1388,7 +1386,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" s="2">
         <v>10105</v>
@@ -1405,7 +1403,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" s="2">
         <v>47667</v>
@@ -1422,7 +1420,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" s="2">
         <v>26517</v>
@@ -1439,7 +1437,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" s="2">
         <v>1489</v>
@@ -1456,7 +1454,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" s="2">
         <v>9796</v>
@@ -1473,7 +1471,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="2">
         <v>9370</v>
@@ -1490,7 +1488,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" s="2">
         <v>20428</v>
@@ -1507,7 +1505,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" s="2">
         <v>3032</v>
@@ -1524,7 +1522,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" s="2">
         <v>50159</v>
@@ -1541,7 +1539,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" s="2">
         <v>3995</v>
@@ -1558,7 +1556,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" s="2">
         <v>46658</v>
@@ -1575,7 +1573,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" s="2">
         <v>2517</v>
@@ -1592,7 +1590,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B57" s="2">
         <v>18108</v>
@@ -1609,7 +1607,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B58" s="2">
         <v>4498</v>
@@ -1626,7 +1624,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B59" s="2">
         <v>7131</v>
@@ -1643,7 +1641,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B60" s="2">
         <v>27101</v>
@@ -1660,7 +1658,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="2">
         <v>23190</v>
@@ -1677,7 +1675,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" s="2">
         <v>2693</v>
@@ -1694,7 +1692,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" s="2">
         <v>6285</v>
@@ -1711,7 +1709,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" s="2">
         <v>7457</v>
@@ -1728,7 +1726,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" s="2">
         <v>5903</v>
@@ -1745,7 +1743,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" s="2">
         <v>22789</v>
@@ -1762,7 +1760,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" s="2">
         <v>3867</v>
@@ -1779,7 +1777,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" s="2">
         <v>26650</v>
@@ -1796,7 +1794,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" s="2">
         <v>103906</v>
@@ -1813,7 +1811,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" s="2">
         <v>9703</v>
@@ -1830,7 +1828,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" s="2">
         <v>4388</v>
@@ -1847,7 +1845,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" s="2">
         <v>44060</v>
@@ -1864,7 +1862,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" s="2">
         <v>16365</v>
